--- a/medicine/Enfance/Ramona_Bădescu_(femme_de_lettres)/Ramona_Bădescu_(femme_de_lettres).xlsx
+++ b/medicine/Enfance/Ramona_Bădescu_(femme_de_lettres)/Ramona_Bădescu_(femme_de_lettres).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ramona_B%C4%83descu_(femme_de_lettres)</t>
+          <t>Ramona_Bădescu_(femme_de_lettres)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ramona Bădescu, née le 8 février 1980, est une écrivaine française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ramona_B%C4%83descu_(femme_de_lettres)</t>
+          <t>Ramona_Bădescu_(femme_de_lettres)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ramona Bădescu est née dans le sud de la Roumanie le 8 février 1980. Elle  arrive dans le sud de la France à l'âge de 10 ans. Elle est titulaire d'un diplôme d'études universitaires scientifiques et techniques de formation aux métiers du théâtre. En 2001, elle  crée la compagnie « Je sais bien mais quand même ».
 Son premier livre jeunesse est publié en 2002. Résidant à Marseille, elle est comédienne et écrit également pour le théâtre et de la poésie.
-En 1999, elle rencontre Benjamin Chaud, illustrateur formé à l'École supérieure des arts décoratifs de Strasbourg, qui lui demande de créer un personnage : ce sera un éléphant rose, nommé Pomelo, dont les aventures sont éditées par les éditions Albin Michel jeunesse[1].
-Elle est également traductrice d'ouvrages jeunesse, depuis l'anglais vers le français[2], dont la série Mog de Judith Kerr. En 2020, pour l'ouvrage Mog, la nuit des renards, elle figure dans la prestigieuse liste internationale « Honour List »[3] de l' IBBY, dans la catégorie Traducteurs.
-De 2019 à 2022, elle préside le Salon du livre et de la presse jeunesse de Montreuil[4].
+En 1999, elle rencontre Benjamin Chaud, illustrateur formé à l'École supérieure des arts décoratifs de Strasbourg, qui lui demande de créer un personnage : ce sera un éléphant rose, nommé Pomelo, dont les aventures sont éditées par les éditions Albin Michel jeunesse.
+Elle est également traductrice d'ouvrages jeunesse, depuis l'anglais vers le français, dont la série Mog de Judith Kerr. En 2020, pour l'ouvrage Mog, la nuit des renards, elle figure dans la prestigieuse liste internationale « Honour List » de l' IBBY, dans la catégorie Traducteurs.
+De 2019 à 2022, elle préside le Salon du livre et de la presse jeunesse de Montreuil.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ramona_B%C4%83descu_(femme_de_lettres)</t>
+          <t>Ramona_Bădescu_(femme_de_lettres)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Livres
-À trois (2005). Illustrations d'Olivier Balez
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À trois (2005). Illustrations d'Olivier Balez
 Histoires de la grande forêt, illustrations d'Aurore Callias
 Tristesse et chèvrefeuille (2010)
 Le Bal d'automne (2010)
@@ -587,10 +606,7 @@
 Illustrations de Chiaki Miyamoto
 Petit fantôme (2007)
 Mon panda (2008)
-Un nuage dans la poche (2006). Illustrations d'Irène Schoch
-Théâtre
-Le Mouton cachalot, avec Sophie Agnel (piano) et Catherine Jauniaux (voix), images de Juliette Agnel, 2007[5]
-Moi, canard, mis en scène par Enora Boëlle, produit par le joli collectif, 2015[6], illustré par Fanny Dreyer, Cambourakis, 2016[7].</t>
+Un nuage dans la poche (2006). Illustrations d'Irène Schoch</t>
         </is>
       </c>
     </row>
@@ -600,7 +616,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ramona_B%C4%83descu_(femme_de_lettres)</t>
+          <t>Ramona_Bădescu_(femme_de_lettres)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -615,10 +631,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Mouton cachalot, avec Sophie Agnel (piano) et Catherine Jauniaux (voix), images de Juliette Agnel, 2007
+Moi, canard, mis en scène par Enora Boëlle, produit par le joli collectif, 2015, illustré par Fanny Dreyer, Cambourakis, 2016.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ramona_Bădescu_(femme_de_lettres)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ramona_B%C4%83descu_(femme_de_lettres)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Traductions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Depuis l'anglais vers le français.
 Judith Kerr, série Mogg, 4 titres, Albin Michel jeunesse, 2016-2018
